--- a/5_Testing_Datasets/Bondi Junction_2022_28.09.2021_Post_Participants.xlsx
+++ b/5_Testing_Datasets/Bondi Junction_2022_28.09.2021_Post_Participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF252093-4718-44AE-B7D8-DBFFC15BBEF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B45BA-9A12-4A59-A6F1-33D9B26A4BBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -282,12 +282,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>What did you enjoy most about the community? (Select all 5 that apply)</t>
-  </si>
-  <si>
-    <t>What were your biggest learnings from the activity? (Select all 6 that apply)</t>
-  </si>
-  <si>
     <t xml:space="preserve">On a scale of 1-5, how would you rate your environmental habits after the activity? </t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>Learnt more about behaviours I can change to reduce my waste, Learnt about complexity of recycling e.g. through Defy Design workshop activity</t>
+  </si>
+  <si>
+    <t>What were your biggest learnings from the activity? (Select all 3 that apply)</t>
+  </si>
+  <si>
+    <t>What did you enjoy most about the community? (Select all 3 that apply)</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13:H17"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -623,10 +623,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -744,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -988,7 +988,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -1038,7 +1038,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1184,7 +1184,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1232,7 +1232,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1280,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1328,7 +1328,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1376,7 +1376,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1424,7 +1424,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1472,7 +1472,7 @@
         <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -1520,7 +1520,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -1568,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>

--- a/5_Testing_Datasets/Bondi Junction_2022_28.09.2021_Post_Participants.xlsx
+++ b/5_Testing_Datasets/Bondi Junction_2022_28.09.2021_Post_Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B45BA-9A12-4A59-A6F1-33D9B26A4BBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0893BB6A-E7D0-47D2-9D6E-904BAE2AA77B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve">On a scale of 1-5, how would you rate your environmental habits after the activity? </t>
-  </si>
-  <si>
     <t>Select the appropriate response you feel represents your experience [new option] (Action)</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>What did you enjoy most about the community? (Select all 3 that apply)</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 5, where 1 is not engaged at all and 5 is very engaged, how engaged are you in making changes that positively impact the environment?</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -623,10 +623,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -744,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -988,7 +988,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -1038,7 +1038,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1184,7 +1184,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1232,7 +1232,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1280,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1328,7 +1328,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1376,7 +1376,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1424,7 +1424,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1472,7 +1472,7 @@
         <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -1520,7 +1520,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -1568,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1635,5 +1635,6 @@
     <hyperlink ref="B21" r:id="rId16" xr:uid="{0137ED72-29D3-4B20-B88C-0B4CB9EF0D2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>